--- a/xlsx/互联网_intext.xlsx
+++ b/xlsx/互联网_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1147">
   <si>
     <t>互联网</t>
   </si>
@@ -29,7 +29,7 @@
     <t>电脑网络</t>
   </si>
   <si>
-    <t>政策_政策_美國_互联网</t>
+    <t>政策_政策_美国_互联网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nanonetwork</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E5%A0%B4%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>近場通訊</t>
+    <t>近场通讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Body_area_network</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E5%8D%80%E5%9F%9F%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>個人區域網絡</t>
+    <t>个人区域网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BA%BF%E4%B8%AA%E4%BA%BA%E7%BD%91</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E7%89%99</t>
   </si>
   <si>
-    <t>藍牙</t>
+    <t>蓝牙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wi-Fi</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E7%A7%81%E4%BA%BA%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>虛擬私人網路</t>
+    <t>虚拟私人网路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internet_area_network</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Opte_Project</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E5%AD%98%E5%8F%96</t>
   </si>
   <si>
-    <t>網路存取</t>
+    <t>网路存取</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E5%AE%A1%E6%9F%A5</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%90%BD%E5%B7%AE</t>
   </si>
   <si>
-    <t>數位落差</t>
+    <t>数位落差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%97%E6%9D%83%E5%88%A9</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E7%88%86%E7%B4%85</t>
   </si>
   <si>
-    <t>網路爆紅</t>
+    <t>网路爆红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E4%B8%AD%E7%AB%8B%E6%80%A7</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>網際網路社會學</t>
+    <t>网际网路社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BA%92%E8%81%94%E7%BD%91%E7%9A%84%E4%BD%BF%E7%94%A8</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%8D%9A</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%88%86%E4%BA%AB</t>
   </si>
   <si>
-    <t>檔案分享</t>
+    <t>档案分享</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/File_transfer</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E6%99%82%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>即時通訊</t>
+    <t>即时通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%AD%E5%AE%A2</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E5%8D%94%E8%AD%B0%E9%80%9A%E8%A9%B1%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>網際協議通話技術</t>
+    <t>网际协议通话技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E7%BB%B4%E7%BD%91</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網路</t>
+    <t>网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%96%87%E6%9C%AC</t>
@@ -509,9 +509,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%83%B5%E4%BB%B6</t>
   </si>
   <si>
-    <t>電子郵件</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E7%AD%89%E7%BD%91%E7%BB%9C</t>
   </si>
   <si>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2%E7%9A%84%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>互聯網的歷史</t>
+    <t>互联网的历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%95%A3%E7%BD%91%E7%BB%9C</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%8C%85%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>封包交換</t>
+    <t>封包交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
+    <t>国防高等研究计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCP/IP%E5%8D%8F%E8%AE%AE</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%A0%B8%E5%AD%90%E7%A0%94%E7%A9%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>歐洲核子研究組織</t>
+    <t>欧洲核子研究组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HTML</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%82%B3%E8%BC%B8%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>檔案傳輸協定</t>
+    <t>档案传输协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lightweight_Directory_Access_Protocol</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%B1%A4</t>
   </si>
   <si>
-    <t>網絡層</t>
+    <t>网络层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_Protocol</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E7%A2%BA%E6%93%81%E5%A1%9E%E9%80%9A%E7%9F%A5</t>
   </si>
   <si>
-    <t>明確擁塞通知</t>
+    <t>明确拥塞通知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_Group_Management_Protocol</t>
@@ -1007,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%B8%B6</t>
   </si>
   <si>
-    <t>寬帶</t>
+    <t>宽带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%84%E9%A0%BB</t>
   </si>
   <si>
-    <t>窄頻</t>
+    <t>窄频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ADSL</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B%E7%B7%9A%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>電力線通信</t>
+    <t>电力线通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E7%BC%86%E8%B0%83%E5%88%B6%E8%A7%A3%E8%B0%83%E5%99%A8</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%A5%E8%99%9F%E9%80%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>撥號連線</t>
+    <t>拨号连线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GPRS</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%95%86%E5%8B%99</t>
   </si>
   <si>
-    <t>電子商務</t>
+    <t>电子商务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%A4%8F%E5%AD%A3%E8%BE%BE%E6%B2%83%E6%96%AF%E8%AE%BA%E5%9D%9B</t>
@@ -1169,19 +1166,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E6%84%8F%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>惡意軟體</t>
+    <t>恶意软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E7%97%85%E6%AF%92</t>
   </si>
   <si>
-    <t>電腦病毒</t>
+    <t>电脑病毒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E6%84%8F%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>惡意程式</t>
+    <t>恶意程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%89%A7%E8%A1%8C%E6%96%87%E4%BB%B6</t>
@@ -1223,13 +1220,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作發展組織</t>
+    <t>经济合作发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
@@ -1241,19 +1238,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%92%E8%81%94%E7%BD%91%E7%BB%9C%E4%BF%A1%E6%81%AF%E4%B8%AD%E5%BF%83</t>
@@ -1277,19 +1274,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%AD%E5%AE%A2</t>
   </si>
   <si>
-    <t>駭客</t>
+    <t>骇客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%96%83%E6%97%8F</t>
   </si>
   <si>
-    <t>快閃族</t>
+    <t>快闪族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%96%83%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>快閃活動</t>
+    <t>快闪活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E7%8E%A9%E5%AE%B6</t>
@@ -1301,19 +1298,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E4%BD%9C%E5%AE%B6</t>
   </si>
   <si>
-    <t>網絡作家</t>
+    <t>网络作家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E4%BA%A4%E5%8F%8B</t>
   </si>
   <si>
-    <t>網路交友</t>
+    <t>网路交友</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>線上遊戲</t>
+    <t>线上游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E6%96%87</t>
@@ -1325,37 +1322,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>注音符號</t>
+    <t>注音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E8%AB%96%E5%A3%87</t>
   </si>
   <si>
-    <t>網路論壇</t>
+    <t>网路论坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E8%81%8A%E5%A4%A9%E5%AE%A4</t>
   </si>
   <si>
-    <t>網路聊天室</t>
+    <t>网路聊天室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%88%E5%91%8A%E6%AC%84</t>
   </si>
   <si>
-    <t>電子佈告欄</t>
+    <t>电子布告栏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>顏文字</t>
+    <t>颜文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A7</t>
@@ -1379,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E5%A3%87</t>
   </si>
   <si>
-    <t>論壇</t>
+    <t>论坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBS</t>
@@ -1391,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E5%B0%81%E9%94%81</t>
@@ -1481,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%9C%E9%8F%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>稜鏡計畫</t>
+    <t>稜镜计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%81%AB%E9%95%BF%E5%9F%8E</t>
@@ -1493,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
+    <t>美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%83%85%E5%B1%80</t>
@@ -1511,13 +1508,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華盛頓郵報</t>
+    <t>华盛顿邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Hong_Kong</t>
@@ -1535,13 +1532,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%A6%AC%E6%96%AF%C2%B7%E4%BD%9B%E9%87%8C%E6%9B%BC</t>
   </si>
   <si>
-    <t>湯馬斯·佛里曼</t>
+    <t>汤马斯·佛里曼</t>
   </si>
   <si>
     <t>http://www.wikia.com/wiki/c:evchk:%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>wikiasite-evchk-互聯網</t>
+    <t>wikiasite-evchk-互联网</t>
   </si>
   <si>
     <t>http://www.wikia.com/wiki/c:evchk</t>
@@ -1553,31 +1550,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>內聯網</t>
+    <t>内联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>區域網路</t>
+    <t>区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>廣域網路</t>
+    <t>广域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>都會網路</t>
+    <t>都会网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>網頁瀏覽器</t>
+    <t>网页浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%94%B5%E8%AF%9D</t>
@@ -1607,13 +1604,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E5%8F%8B%E8%AA%BC</t>
   </si>
   <si>
-    <t>網路友誼</t>
+    <t>网路友谊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E5%9F%9F%E5%90%8D%E7%A8%B1</t>
   </si>
   <si>
-    <t>網域名稱</t>
+    <t>网域名称</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%A1%AC%E7%9B%98</t>
@@ -1625,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E4%BD%BF%E7%94%A8%E7%8E%87</t>
   </si>
   <si>
-    <t>全球網際網路使用率</t>
+    <t>全球网际网路使用率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%97%E7%BD%91</t>
@@ -1637,13 +1634,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>網路主權</t>
+    <t>网路主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E4%B8%8A%EF%BC%8C%E6%B2%92%E4%BA%BA%E7%9F%A5%E9%81%93%E4%BD%A0%E6%98%AF%E4%B8%80%E9%9A%BB%E7%8B%97</t>
   </si>
   <si>
-    <t>在網際網路上，沒人知道你是一隻狗</t>
+    <t>在网际网路上，没人知道你是一只狗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Minitel</t>
@@ -1703,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E9%80%A3%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>鍵連資料</t>
+    <t>键连资料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semantic_wiki</t>
@@ -1805,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E9%A4%A82.0</t>
   </si>
   <si>
-    <t>圖書館2.0</t>
+    <t>图书馆2.0</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%95%B0%E6%8D%AE</t>
@@ -1817,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E7%85%A7</t>
   </si>
   <si>
-    <t>參照</t>
+    <t>参照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Web_2.0</t>
@@ -1901,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E8%B3%87%E6%BA%90%E6%A8%99%E8%AD%98%E7%AC%A6</t>
   </si>
   <si>
-    <t>統一資源標識符</t>
+    <t>统一资源标识符</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RDF</t>
@@ -1991,25 +1988,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BA%8C%E5%8D%81%E5%A4%A7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%BB%A0%E5%95%86</t>
   </si>
   <si>
-    <t>全球二十大半導體廠商</t>
+    <t>全球二十大半导体厂商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>消費電子產品</t>
+    <t>消费电子产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>行動裝置</t>
+    <t>行动装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E7%94%B5%E5%AD%90</t>
@@ -2021,13 +2018,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%82%BA</t>
   </si>
   <si>
-    <t>華為</t>
+    <t>华为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E7%A7%BB%E5%8B%95%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>索尼移動通信</t>
+    <t>索尼移动通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%BE%BE%E7%94%B5</t>
@@ -2039,7 +2036,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%A2%A9</t>
   </si>
   <si>
-    <t>華碩</t>
+    <t>华硕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E7%A7%BB%E5%8A%A8</t>
@@ -2057,7 +2054,7 @@
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>LG電子</t>
+    <t>LG电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCL</t>
@@ -2111,7 +2108,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%8F%AF%E8%A6%96</t>
   </si>
   <si>
-    <t>富可視</t>
+    <t>富可视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
@@ -2177,25 +2174,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>鴻海科技集團</t>
+    <t>鸿海科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%99%BA%E5%BA%B7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富智康集團</t>
+    <t>富智康集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%81%94%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>廣達電腦</t>
+    <t>广达电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%AF%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>仁寶電腦</t>
+    <t>仁宝电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%88%9B%E8%B5%84%E9%80%9A</t>
@@ -2207,19 +2204,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A5%AD%E9%81%94%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>英業達集團</t>
+    <t>英业达集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%A2%A9%E8%81%AF%E5%90%88%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>和碩聯合科技</t>
+    <t>和硕联合科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%89%B5%E5%8A%9B</t>
   </si>
   <si>
-    <t>偉創力</t>
+    <t>伟创力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Celestica</t>
@@ -2261,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F</t>
@@ -2279,9 +2276,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%BA%B7</t>
   </si>
   <si>
@@ -2303,7 +2297,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E8%BE%BE</t>
@@ -2339,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E5%B7%A5%E6%84%9B%E6%99%AE%E7%94%9F</t>
   </si>
   <si>
-    <t>精工愛普生</t>
+    <t>精工爱普生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E4%B9%90</t>
@@ -2351,7 +2345,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%AB%8B%E5%85%89%E9%9B%BB</t>
   </si>
   <si>
-    <t>大立光電</t>
+    <t>大立光电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%82%A8%E8%AE%BE%E5%A4%87</t>
@@ -2375,13 +2369,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%A8%B0%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>威騰電子</t>
+    <t>威腾电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E5%AE%89%E4%BF%A1</t>
@@ -2399,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%99%A8%E6%A2%B0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>網絡器械公司</t>
+    <t>网络器械公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87%E5%85%AC%E5%8F%B8</t>
@@ -2411,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E8%A9%A2</t>
   </si>
   <si>
-    <t>諮詢</t>
+    <t>谘询</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%88%A4</t>
@@ -2429,7 +2423,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E8%A8%8A</t>
   </si>
   <si>
-    <t>源訊</t>
+    <t>源讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%80%9D%E8%89%BE%E4%BC%A6%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -2441,7 +2435,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%8D%B7</t>
   </si>
   <si>
-    <t>凱捷</t>
+    <t>凯捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CGI_Group</t>
@@ -2477,7 +2471,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%BE%B7%E6%8B%89%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>英德拉系統</t>
+    <t>英德拉系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%AD%9A%E7%91%9F%E6%96%AF</t>
@@ -2489,7 +2483,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wipro</t>
@@ -2513,13 +2507,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>思科系統</t>
+    <t>思科系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E6%99%82%E9%BB%9E%E6%83%85%E5%A0%B1%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>銷售時點情報系統</t>
+    <t>销售时点情报系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCR%E5%85%AC%E5%8F%B8</t>
@@ -2531,9 +2525,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8A%9D</t>
   </si>
   <si>
-    <t>東芝</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Network_equipment_provider</t>
   </si>
   <si>
@@ -2543,7 +2534,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%A1%E7%89%B9-%E6%9C%97%E8%A8%8A</t>
   </si>
   <si>
-    <t>阿爾卡特-朗訊</t>
+    <t>阿尔卡特-朗讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E4%BA%9A</t>
@@ -2555,19 +2546,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%AB%8B%E4%BF%A1</t>
   </si>
   <si>
-    <t>愛立信</t>
+    <t>爱立信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%BA</t>
   </si>
   <si>
-    <t>华为</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%BB%E5%8D%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>瞻博網路</t>
+    <t>瞻博网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E8%A7%A3%E5%86%B3%E6%96%B9%E6%A1%88</t>
@@ -2621,7 +2609,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%84%80%E5%99%A8</t>
   </si>
   <si>
-    <t>德州儀器</t>
+    <t>德州仪器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E9%80%9A</t>
@@ -2633,55 +2621,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E6%B3%95%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>意法半導體</t>
+    <t>意法半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E8%96%A9%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>瑞薩電子</t>
+    <t>瑞萨电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A8%81%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超威半導體</t>
+    <t>超威半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%81%89%E9%81%94</t>
   </si>
   <si>
-    <t>英偉達</t>
+    <t>英伟达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%80%9D%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>海思半導體</t>
+    <t>海思半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%99%BC%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>聯發科技</t>
+    <t>联发科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%80%9D%E5%8D%A1%E7%88%BE</t>
   </si>
   <si>
-    <t>飛思卡爾</t>
+    <t>飞思卡尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>LG集團</t>
+    <t>LG集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%A3%9B%E5%87%8C</t>
   </si>
   <si>
-    <t>英飛凌</t>
+    <t>英飞凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%BB%A1%E7%94%B5%E5%AD%90%E7%A7%91%E6%8A%80%E5%85%AC%E5%8F%B8</t>
@@ -2699,7 +2687,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A3%AE%E7%BE%8E%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
@@ -2711,7 +2699,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%8D%B7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>快捷半導體公司</t>
+    <t>快捷半导体公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LSI%E5%85%AC%E5%8F%B8</t>
@@ -2723,43 +2711,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E5%85%89%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>紫光集團</t>
+    <t>紫光集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%AC%80%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>安謀控股</t>
+    <t>安谋控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E5%9C%93%E4%BB%A3%E5%B7%A5</t>
   </si>
   <si>
-    <t>晶圓代工</t>
+    <t>晶圆代工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%A9%8D%E9%9B%BB</t>
   </si>
   <si>
-    <t>台積電</t>
+    <t>台积电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E8%8F%AF%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>聯華電子</t>
+    <t>联华电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%B9%E5%BE%B7</t>
   </si>
   <si>
-    <t>格羅方德</t>
+    <t>格罗方德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8A%AF%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>中芯國際</t>
+    <t>中芯国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E6%99%B6%E7%A7%91%E6%8A%80</t>
@@ -2771,9 +2759,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%95%86%E5%8A%A1</t>
   </si>
   <si>
-    <t>电子商务</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E5%B7%B4%E5%B7%B4%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
@@ -2783,7 +2768,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞馬遜公司</t>
+    <t>亚马逊公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EBay</t>
@@ -2795,13 +2780,13 @@
     <t>https://zh.wikipedia.org/wiki/Priceline%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>Priceline集團</t>
+    <t>Priceline集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%9D%B1%E5%95%86%E5%9F%8E</t>
   </si>
   <si>
-    <t>京東商城</t>
+    <t>京东商城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Groupon</t>
@@ -2819,13 +2804,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9_(Rakuten)</t>
   </si>
   <si>
-    <t>樂天 (Rakuten)</t>
+    <t>乐天 (Rakuten)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%80%94%E9%B7%B9</t>
   </si>
   <si>
-    <t>貓途鷹</t>
+    <t>猫途鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Expedia%E5%85%AC%E5%8F%B8</t>
@@ -2897,7 +2882,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>社群網路</t>
+    <t>社群网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Facebook</t>
@@ -2909,7 +2894,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%B0%E8%A8%8A</t>
   </si>
   <si>
-    <t>騰訊</t>
+    <t>腾讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -2921,7 +2906,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%8B%B1</t>
   </si>
   <si>
-    <t>領英</t>
+    <t>领英</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B5%AA%E5%BE%AE%E5%8D%9A</t>
@@ -2939,7 +2924,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%8F%A3%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>入口網站</t>
+    <t>入口网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%98%93</t>
@@ -2975,7 +2960,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SAP%E5%85%AC%E5%8F%B8</t>
@@ -2987,7 +2972,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%96%80%E9%90%B5%E5%85%8B</t>
   </si>
   <si>
-    <t>賽門鐵克</t>
+    <t>赛门铁克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VMware</t>
@@ -3017,13 +3002,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8A%E9%80%A3%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>訊連科技</t>
+    <t>讯连科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94</t>
@@ -3041,13 +3026,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電訊公司</t>
+    <t>电讯公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T</t>
@@ -3059,7 +3044,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%BB%E5%8A%A8</t>
@@ -3077,7 +3062,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E8%BE%BE%E4%B8%B0</t>
@@ -3095,13 +3080,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中國電信</t>
+    <t>中国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>西班牙電信</t>
+    <t>西班牙电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Orange_(%E5%85%AC%E5%8F%B8)</t>
@@ -3125,19 +3110,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>英國電信</t>
+    <t>英国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>義大利電信</t>
+    <t>义大利电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>澳大利亞電信</t>
+    <t>澳大利亚电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%94%B5%E4%BF%A1</t>
@@ -3173,19 +3158,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%97%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>維旺迪</t>
+    <t>维旺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中華電信</t>
+    <t>中华电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9A%87%E5%AE%B6%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>荷蘭皇家電信</t>
+    <t>荷兰皇家电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DOCOMO</t>
@@ -3215,13 +3200,13 @@
     <t>https://zh.wikipedia.org/wiki/3_(%E9%9B%BB%E8%A8%8A)</t>
   </si>
   <si>
-    <t>3 (電訊)</t>
+    <t>3 (电讯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>新加坡電信</t>
+    <t>新加坡电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Etisalat</t>
@@ -3245,7 +3230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E7%9B%88%E7%A7%91</t>
   </si>
   <si>
-    <t>電訊盈科</t>
+    <t>电讯盈科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%A7%86%E6%9A%B4%E9%9B%AA</t>
@@ -3257,7 +3242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A9</t>
   </si>
   <si>
-    <t>雅達利</t>
+    <t>雅达利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E4%BB%A3%E5%8D%97%E6%A2%A6%E5%AE%AB%E5%A8%B1%E4%B9%90</t>
@@ -3299,7 +3284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCsoft</t>
@@ -3341,9 +3326,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%BE%E8%AE%AF</t>
   </si>
   <si>
-    <t>腾讯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A2%A7</t>
   </si>
   <si>
@@ -3353,7 +3335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E4%BA%92%E5%8B%95%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>華納兄弟互動娛樂</t>
+    <t>华纳兄弟互动娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -3365,7 +3347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
-    <t>經濟全球化</t>
+    <t>经济全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -3383,55 +3365,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E8%AD%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際刑警組織</t>
+    <t>国际刑警组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>旅遊</t>
+    <t>旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際貿易年表</t>
+    <t>国际贸易年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E6%8C%87%E6%95%B0</t>
@@ -3443,7 +3425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3467,13 +3449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -6193,7 +6175,7 @@
         <v>163</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -6219,10 +6201,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -6277,10 +6259,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -6306,10 +6288,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6335,10 +6317,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6364,10 +6346,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6393,10 +6375,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6422,10 +6404,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6451,10 +6433,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6480,10 +6462,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -6509,10 +6491,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -6538,10 +6520,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -6567,10 +6549,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>13</v>
@@ -6596,10 +6578,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6625,10 +6607,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6654,10 +6636,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -6683,10 +6665,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6712,10 +6694,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6741,10 +6723,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6770,10 +6752,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -6799,10 +6781,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6828,10 +6810,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6857,10 +6839,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6886,10 +6868,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6915,10 +6897,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6944,10 +6926,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6973,10 +6955,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -7002,10 +6984,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -7031,10 +7013,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7060,10 +7042,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7089,10 +7071,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7147,10 +7129,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7205,10 +7187,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7234,10 +7216,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7263,10 +7245,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7292,10 +7274,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -7321,10 +7303,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7350,10 +7332,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7379,10 +7361,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7408,10 +7390,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7437,10 +7419,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -7466,10 +7448,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -7495,10 +7477,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7524,10 +7506,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7553,10 +7535,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7582,10 +7564,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7611,10 +7593,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7669,10 +7651,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7698,10 +7680,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7727,10 +7709,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7756,10 +7738,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7785,10 +7767,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7814,10 +7796,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7843,10 +7825,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>9</v>
@@ -7872,10 +7854,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -7901,10 +7883,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7930,10 +7912,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7959,10 +7941,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7988,10 +7970,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8017,10 +7999,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>32</v>
@@ -8046,10 +8028,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
         <v>283</v>
-      </c>
-      <c r="F146" t="s">
-        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -8075,10 +8057,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" t="s">
         <v>285</v>
-      </c>
-      <c r="F147" t="s">
-        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>7</v>
@@ -8104,10 +8086,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" t="s">
         <v>287</v>
-      </c>
-      <c r="F148" t="s">
-        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -8133,10 +8115,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
         <v>289</v>
-      </c>
-      <c r="F149" t="s">
-        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8162,10 +8144,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8191,10 +8173,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8220,10 +8202,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8249,10 +8231,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8278,10 +8260,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8307,10 +8289,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>7</v>
@@ -8336,10 +8318,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8365,10 +8347,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8394,10 +8376,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8423,10 +8405,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" t="s">
         <v>309</v>
-      </c>
-      <c r="F159" t="s">
-        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8452,10 +8434,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F160" t="s">
         <v>311</v>
-      </c>
-      <c r="F160" t="s">
-        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8481,10 +8463,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8510,10 +8492,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" t="s">
         <v>315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8539,10 +8521,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" t="s">
         <v>317</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -8568,10 +8550,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" t="s">
         <v>319</v>
-      </c>
-      <c r="F164" t="s">
-        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8597,10 +8579,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" t="s">
         <v>321</v>
-      </c>
-      <c r="F165" t="s">
-        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>13</v>
@@ -8655,10 +8637,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -8684,10 +8666,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -8713,10 +8695,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8742,10 +8724,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -8771,10 +8753,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -8800,10 +8782,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8829,10 +8811,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8858,10 +8840,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8887,10 +8869,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -8916,10 +8898,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8945,10 +8927,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8974,10 +8956,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9003,10 +8985,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9032,10 +9014,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -9061,10 +9043,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
-      </c>
-      <c r="F181" t="s">
-        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9090,10 +9072,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>352</v>
+      </c>
+      <c r="F182" t="s">
         <v>353</v>
-      </c>
-      <c r="F182" t="s">
-        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9119,10 +9101,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>354</v>
+      </c>
+      <c r="F183" t="s">
         <v>355</v>
-      </c>
-      <c r="F183" t="s">
-        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -9148,10 +9130,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>356</v>
+      </c>
+      <c r="F184" t="s">
         <v>357</v>
-      </c>
-      <c r="F184" t="s">
-        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9177,10 +9159,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>358</v>
+      </c>
+      <c r="F185" t="s">
         <v>359</v>
-      </c>
-      <c r="F185" t="s">
-        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -9206,10 +9188,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>360</v>
+      </c>
+      <c r="F186" t="s">
         <v>361</v>
-      </c>
-      <c r="F186" t="s">
-        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9235,10 +9217,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>362</v>
+      </c>
+      <c r="F187" t="s">
         <v>363</v>
-      </c>
-      <c r="F187" t="s">
-        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9264,10 +9246,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" t="s">
         <v>365</v>
-      </c>
-      <c r="F188" t="s">
-        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9293,10 +9275,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>366</v>
+      </c>
+      <c r="F189" t="s">
         <v>367</v>
-      </c>
-      <c r="F189" t="s">
-        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9322,10 +9304,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>368</v>
+      </c>
+      <c r="F190" t="s">
         <v>369</v>
-      </c>
-      <c r="F190" t="s">
-        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9351,10 +9333,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>370</v>
+      </c>
+      <c r="F191" t="s">
         <v>371</v>
-      </c>
-      <c r="F191" t="s">
-        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -9380,10 +9362,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>372</v>
+      </c>
+      <c r="F192" t="s">
         <v>373</v>
-      </c>
-      <c r="F192" t="s">
-        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -9409,10 +9391,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>374</v>
+      </c>
+      <c r="F193" t="s">
         <v>375</v>
-      </c>
-      <c r="F193" t="s">
-        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9438,10 +9420,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>376</v>
+      </c>
+      <c r="F194" t="s">
         <v>377</v>
-      </c>
-      <c r="F194" t="s">
-        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9467,10 +9449,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>378</v>
+      </c>
+      <c r="F195" t="s">
         <v>379</v>
-      </c>
-      <c r="F195" t="s">
-        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9496,10 +9478,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>380</v>
+      </c>
+      <c r="F196" t="s">
         <v>381</v>
-      </c>
-      <c r="F196" t="s">
-        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9525,10 +9507,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>382</v>
+      </c>
+      <c r="F197" t="s">
         <v>383</v>
-      </c>
-      <c r="F197" t="s">
-        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9554,10 +9536,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>384</v>
+      </c>
+      <c r="F198" t="s">
         <v>385</v>
-      </c>
-      <c r="F198" t="s">
-        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9583,10 +9565,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>386</v>
+      </c>
+      <c r="F199" t="s">
         <v>387</v>
-      </c>
-      <c r="F199" t="s">
-        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9612,10 +9594,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>388</v>
+      </c>
+      <c r="F200" t="s">
         <v>389</v>
-      </c>
-      <c r="F200" t="s">
-        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9641,10 +9623,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>390</v>
+      </c>
+      <c r="F201" t="s">
         <v>391</v>
-      </c>
-      <c r="F201" t="s">
-        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9670,10 +9652,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>392</v>
+      </c>
+      <c r="F202" t="s">
         <v>393</v>
-      </c>
-      <c r="F202" t="s">
-        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9699,10 +9681,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>394</v>
+      </c>
+      <c r="F203" t="s">
         <v>395</v>
-      </c>
-      <c r="F203" t="s">
-        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>10</v>
@@ -9728,10 +9710,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>396</v>
+      </c>
+      <c r="F204" t="s">
         <v>397</v>
-      </c>
-      <c r="F204" t="s">
-        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9757,10 +9739,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>398</v>
+      </c>
+      <c r="F205" t="s">
         <v>399</v>
-      </c>
-      <c r="F205" t="s">
-        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9786,10 +9768,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>400</v>
+      </c>
+      <c r="F206" t="s">
         <v>401</v>
-      </c>
-      <c r="F206" t="s">
-        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9815,10 +9797,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>402</v>
+      </c>
+      <c r="F207" t="s">
         <v>403</v>
-      </c>
-      <c r="F207" t="s">
-        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9844,10 +9826,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>404</v>
+      </c>
+      <c r="F208" t="s">
         <v>405</v>
-      </c>
-      <c r="F208" t="s">
-        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9873,10 +9855,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>406</v>
+      </c>
+      <c r="F209" t="s">
         <v>407</v>
-      </c>
-      <c r="F209" t="s">
-        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9902,10 +9884,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>408</v>
+      </c>
+      <c r="F210" t="s">
         <v>409</v>
-      </c>
-      <c r="F210" t="s">
-        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9931,10 +9913,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>410</v>
+      </c>
+      <c r="F211" t="s">
         <v>411</v>
-      </c>
-      <c r="F211" t="s">
-        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>5</v>
@@ -9960,10 +9942,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>412</v>
+      </c>
+      <c r="F212" t="s">
         <v>413</v>
-      </c>
-      <c r="F212" t="s">
-        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9989,10 +9971,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>414</v>
+      </c>
+      <c r="F213" t="s">
         <v>415</v>
-      </c>
-      <c r="F213" t="s">
-        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10018,10 +10000,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214" t="s">
         <v>417</v>
-      </c>
-      <c r="F214" t="s">
-        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -10047,10 +10029,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>418</v>
+      </c>
+      <c r="F215" t="s">
         <v>419</v>
-      </c>
-      <c r="F215" t="s">
-        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10076,10 +10058,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>420</v>
+      </c>
+      <c r="F216" t="s">
         <v>421</v>
-      </c>
-      <c r="F216" t="s">
-        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10105,10 +10087,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>422</v>
+      </c>
+      <c r="F217" t="s">
         <v>423</v>
-      </c>
-      <c r="F217" t="s">
-        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10134,10 +10116,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>424</v>
+      </c>
+      <c r="F218" t="s">
         <v>425</v>
-      </c>
-      <c r="F218" t="s">
-        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10163,10 +10145,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219" t="s">
         <v>427</v>
-      </c>
-      <c r="F219" t="s">
-        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10192,10 +10174,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>428</v>
+      </c>
+      <c r="F220" t="s">
         <v>429</v>
-      </c>
-      <c r="F220" t="s">
-        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10221,10 +10203,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>430</v>
+      </c>
+      <c r="F221" t="s">
         <v>431</v>
-      </c>
-      <c r="F221" t="s">
-        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -10279,10 +10261,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -10308,10 +10290,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10337,10 +10319,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -10366,10 +10348,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10395,10 +10377,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10424,10 +10406,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10453,10 +10435,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
         <v>445</v>
-      </c>
-      <c r="F229" t="s">
-        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10482,10 +10464,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
         <v>447</v>
-      </c>
-      <c r="F230" t="s">
-        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10511,10 +10493,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>448</v>
+      </c>
+      <c r="F231" t="s">
         <v>449</v>
-      </c>
-      <c r="F231" t="s">
-        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10540,10 +10522,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>450</v>
+      </c>
+      <c r="F232" t="s">
         <v>451</v>
-      </c>
-      <c r="F232" t="s">
-        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10569,10 +10551,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>452</v>
+      </c>
+      <c r="F233" t="s">
         <v>453</v>
-      </c>
-      <c r="F233" t="s">
-        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10598,10 +10580,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>454</v>
+      </c>
+      <c r="F234" t="s">
         <v>455</v>
-      </c>
-      <c r="F234" t="s">
-        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10627,10 +10609,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>456</v>
+      </c>
+      <c r="F235" t="s">
         <v>457</v>
-      </c>
-      <c r="F235" t="s">
-        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10656,10 +10638,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" t="s">
         <v>459</v>
-      </c>
-      <c r="F236" t="s">
-        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>4</v>
@@ -10685,10 +10667,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>460</v>
+      </c>
+      <c r="F237" t="s">
         <v>461</v>
-      </c>
-      <c r="F237" t="s">
-        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10714,10 +10696,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" t="s">
         <v>463</v>
-      </c>
-      <c r="F238" t="s">
-        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10743,10 +10725,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>464</v>
+      </c>
+      <c r="F239" t="s">
         <v>465</v>
-      </c>
-      <c r="F239" t="s">
-        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10772,10 +10754,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
         <v>467</v>
-      </c>
-      <c r="F240" t="s">
-        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10801,10 +10783,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>468</v>
+      </c>
+      <c r="F241" t="s">
         <v>469</v>
-      </c>
-      <c r="F241" t="s">
-        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10830,10 +10812,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>470</v>
+      </c>
+      <c r="F242" t="s">
         <v>471</v>
-      </c>
-      <c r="F242" t="s">
-        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10859,10 +10841,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>472</v>
+      </c>
+      <c r="F243" t="s">
         <v>473</v>
-      </c>
-      <c r="F243" t="s">
-        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -10888,10 +10870,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>474</v>
+      </c>
+      <c r="F244" t="s">
         <v>475</v>
-      </c>
-      <c r="F244" t="s">
-        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10917,10 +10899,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>476</v>
+      </c>
+      <c r="F245" t="s">
         <v>477</v>
-      </c>
-      <c r="F245" t="s">
-        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>7</v>
@@ -10946,10 +10928,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>478</v>
+      </c>
+      <c r="F246" t="s">
         <v>479</v>
-      </c>
-      <c r="F246" t="s">
-        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10975,10 +10957,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>480</v>
+      </c>
+      <c r="F247" t="s">
         <v>481</v>
-      </c>
-      <c r="F247" t="s">
-        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11033,10 +11015,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>482</v>
+      </c>
+      <c r="F249" t="s">
         <v>483</v>
-      </c>
-      <c r="F249" t="s">
-        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>4</v>
@@ -11062,10 +11044,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>484</v>
+      </c>
+      <c r="F250" t="s">
         <v>485</v>
-      </c>
-      <c r="F250" t="s">
-        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11091,10 +11073,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>486</v>
+      </c>
+      <c r="F251" t="s">
         <v>487</v>
-      </c>
-      <c r="F251" t="s">
-        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11120,10 +11102,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>488</v>
+      </c>
+      <c r="F252" t="s">
         <v>489</v>
-      </c>
-      <c r="F252" t="s">
-        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11149,10 +11131,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>490</v>
+      </c>
+      <c r="F253" t="s">
         <v>491</v>
-      </c>
-      <c r="F253" t="s">
-        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11178,10 +11160,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>492</v>
+      </c>
+      <c r="F254" t="s">
         <v>493</v>
-      </c>
-      <c r="F254" t="s">
-        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11207,10 +11189,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>494</v>
+      </c>
+      <c r="F255" t="s">
         <v>495</v>
-      </c>
-      <c r="F255" t="s">
-        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11236,10 +11218,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>496</v>
+      </c>
+      <c r="F256" t="s">
         <v>497</v>
-      </c>
-      <c r="F256" t="s">
-        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11265,10 +11247,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>498</v>
+      </c>
+      <c r="F257" t="s">
         <v>499</v>
-      </c>
-      <c r="F257" t="s">
-        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11294,10 +11276,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>500</v>
+      </c>
+      <c r="F258" t="s">
         <v>501</v>
-      </c>
-      <c r="F258" t="s">
-        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11323,10 +11305,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>502</v>
+      </c>
+      <c r="F259" t="s">
         <v>503</v>
-      </c>
-      <c r="F259" t="s">
-        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11352,10 +11334,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>504</v>
+      </c>
+      <c r="F260" t="s">
         <v>505</v>
-      </c>
-      <c r="F260" t="s">
-        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11381,10 +11363,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>506</v>
+      </c>
+      <c r="F261" t="s">
         <v>507</v>
-      </c>
-      <c r="F261" t="s">
-        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>9</v>
@@ -11410,10 +11392,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>508</v>
+      </c>
+      <c r="F262" t="s">
         <v>509</v>
-      </c>
-      <c r="F262" t="s">
-        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11439,10 +11421,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>510</v>
+      </c>
+      <c r="F263" t="s">
         <v>511</v>
-      </c>
-      <c r="F263" t="s">
-        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11468,10 +11450,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>512</v>
+      </c>
+      <c r="F264" t="s">
         <v>513</v>
-      </c>
-      <c r="F264" t="s">
-        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11497,10 +11479,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>514</v>
+      </c>
+      <c r="F265" t="s">
         <v>515</v>
-      </c>
-      <c r="F265" t="s">
-        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11526,10 +11508,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>516</v>
+      </c>
+      <c r="F266" t="s">
         <v>517</v>
-      </c>
-      <c r="F266" t="s">
-        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11555,10 +11537,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>518</v>
+      </c>
+      <c r="F267" t="s">
         <v>519</v>
-      </c>
-      <c r="F267" t="s">
-        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11584,10 +11566,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>520</v>
+      </c>
+      <c r="F268" t="s">
         <v>521</v>
-      </c>
-      <c r="F268" t="s">
-        <v>522</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11613,10 +11595,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>522</v>
+      </c>
+      <c r="F269" t="s">
         <v>523</v>
-      </c>
-      <c r="F269" t="s">
-        <v>524</v>
       </c>
       <c r="G269" t="n">
         <v>3</v>
@@ -11642,10 +11624,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>524</v>
+      </c>
+      <c r="F270" t="s">
         <v>525</v>
-      </c>
-      <c r="F270" t="s">
-        <v>526</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11671,10 +11653,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>526</v>
+      </c>
+      <c r="F271" t="s">
         <v>527</v>
-      </c>
-      <c r="F271" t="s">
-        <v>528</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11700,10 +11682,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>528</v>
+      </c>
+      <c r="F272" t="s">
         <v>529</v>
-      </c>
-      <c r="F272" t="s">
-        <v>530</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11758,10 +11740,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>530</v>
+      </c>
+      <c r="F274" t="s">
         <v>531</v>
-      </c>
-      <c r="F274" t="s">
-        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11787,10 +11769,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>532</v>
+      </c>
+      <c r="F275" t="s">
         <v>533</v>
-      </c>
-      <c r="F275" t="s">
-        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11816,10 +11798,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>534</v>
+      </c>
+      <c r="F276" t="s">
         <v>535</v>
-      </c>
-      <c r="F276" t="s">
-        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11874,10 +11856,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>536</v>
+      </c>
+      <c r="F278" t="s">
         <v>537</v>
-      </c>
-      <c r="F278" t="s">
-        <v>538</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11903,10 +11885,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>538</v>
+      </c>
+      <c r="F279" t="s">
         <v>539</v>
-      </c>
-      <c r="F279" t="s">
-        <v>540</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11932,10 +11914,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>540</v>
+      </c>
+      <c r="F280" t="s">
         <v>541</v>
-      </c>
-      <c r="F280" t="s">
-        <v>542</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11961,10 +11943,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>542</v>
+      </c>
+      <c r="F281" t="s">
         <v>543</v>
-      </c>
-      <c r="F281" t="s">
-        <v>544</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11990,10 +11972,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>544</v>
+      </c>
+      <c r="F282" t="s">
         <v>545</v>
-      </c>
-      <c r="F282" t="s">
-        <v>546</v>
       </c>
       <c r="G282" t="n">
         <v>6</v>
@@ -12019,10 +12001,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>546</v>
+      </c>
+      <c r="F283" t="s">
         <v>547</v>
-      </c>
-      <c r="F283" t="s">
-        <v>548</v>
       </c>
       <c r="G283" t="n">
         <v>5</v>
@@ -12048,10 +12030,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>548</v>
+      </c>
+      <c r="F284" t="s">
         <v>549</v>
-      </c>
-      <c r="F284" t="s">
-        <v>550</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -12077,10 +12059,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>550</v>
+      </c>
+      <c r="F285" t="s">
         <v>551</v>
-      </c>
-      <c r="F285" t="s">
-        <v>552</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12106,10 +12088,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>552</v>
+      </c>
+      <c r="F286" t="s">
         <v>553</v>
-      </c>
-      <c r="F286" t="s">
-        <v>554</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12135,10 +12117,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>554</v>
+      </c>
+      <c r="F287" t="s">
         <v>555</v>
-      </c>
-      <c r="F287" t="s">
-        <v>556</v>
       </c>
       <c r="G287" t="n">
         <v>4</v>
@@ -12164,10 +12146,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>556</v>
+      </c>
+      <c r="F288" t="s">
         <v>557</v>
-      </c>
-      <c r="F288" t="s">
-        <v>558</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12193,10 +12175,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>558</v>
+      </c>
+      <c r="F289" t="s">
         <v>559</v>
-      </c>
-      <c r="F289" t="s">
-        <v>560</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12222,10 +12204,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>560</v>
+      </c>
+      <c r="F290" t="s">
         <v>561</v>
-      </c>
-      <c r="F290" t="s">
-        <v>562</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12251,10 +12233,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>562</v>
+      </c>
+      <c r="F291" t="s">
         <v>563</v>
-      </c>
-      <c r="F291" t="s">
-        <v>564</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12280,10 +12262,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>564</v>
+      </c>
+      <c r="F292" t="s">
         <v>565</v>
-      </c>
-      <c r="F292" t="s">
-        <v>566</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12309,10 +12291,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>566</v>
+      </c>
+      <c r="F293" t="s">
         <v>567</v>
-      </c>
-      <c r="F293" t="s">
-        <v>568</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12338,10 +12320,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>568</v>
+      </c>
+      <c r="F294" t="s">
         <v>569</v>
-      </c>
-      <c r="F294" t="s">
-        <v>570</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12367,10 +12349,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>570</v>
+      </c>
+      <c r="F295" t="s">
         <v>571</v>
-      </c>
-      <c r="F295" t="s">
-        <v>572</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12396,10 +12378,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>572</v>
+      </c>
+      <c r="F296" t="s">
         <v>573</v>
-      </c>
-      <c r="F296" t="s">
-        <v>574</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12425,10 +12407,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>574</v>
+      </c>
+      <c r="F297" t="s">
         <v>575</v>
-      </c>
-      <c r="F297" t="s">
-        <v>576</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12454,10 +12436,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>576</v>
+      </c>
+      <c r="F298" t="s">
         <v>577</v>
-      </c>
-      <c r="F298" t="s">
-        <v>578</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12483,10 +12465,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>578</v>
+      </c>
+      <c r="F299" t="s">
         <v>579</v>
-      </c>
-      <c r="F299" t="s">
-        <v>580</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12512,10 +12494,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>580</v>
+      </c>
+      <c r="F300" t="s">
         <v>581</v>
-      </c>
-      <c r="F300" t="s">
-        <v>582</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12541,10 +12523,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>582</v>
+      </c>
+      <c r="F301" t="s">
         <v>583</v>
-      </c>
-      <c r="F301" t="s">
-        <v>584</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12570,10 +12552,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>584</v>
+      </c>
+      <c r="F302" t="s">
         <v>585</v>
-      </c>
-      <c r="F302" t="s">
-        <v>586</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12599,10 +12581,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>586</v>
+      </c>
+      <c r="F303" t="s">
         <v>587</v>
-      </c>
-      <c r="F303" t="s">
-        <v>588</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12628,10 +12610,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>588</v>
+      </c>
+      <c r="F304" t="s">
         <v>589</v>
-      </c>
-      <c r="F304" t="s">
-        <v>590</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12657,10 +12639,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>590</v>
+      </c>
+      <c r="F305" t="s">
         <v>591</v>
-      </c>
-      <c r="F305" t="s">
-        <v>592</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12686,10 +12668,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>592</v>
+      </c>
+      <c r="F306" t="s">
         <v>593</v>
-      </c>
-      <c r="F306" t="s">
-        <v>594</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12715,10 +12697,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>594</v>
+      </c>
+      <c r="F307" t="s">
         <v>595</v>
-      </c>
-      <c r="F307" t="s">
-        <v>596</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12744,10 +12726,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>596</v>
+      </c>
+      <c r="F308" t="s">
         <v>597</v>
-      </c>
-      <c r="F308" t="s">
-        <v>598</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12773,10 +12755,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>598</v>
+      </c>
+      <c r="F309" t="s">
         <v>599</v>
-      </c>
-      <c r="F309" t="s">
-        <v>600</v>
       </c>
       <c r="G309" t="n">
         <v>8</v>
@@ -12802,10 +12784,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>600</v>
+      </c>
+      <c r="F310" t="s">
         <v>601</v>
-      </c>
-      <c r="F310" t="s">
-        <v>602</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12831,10 +12813,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>602</v>
+      </c>
+      <c r="F311" t="s">
         <v>603</v>
-      </c>
-      <c r="F311" t="s">
-        <v>604</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12860,10 +12842,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>604</v>
+      </c>
+      <c r="F312" t="s">
         <v>605</v>
-      </c>
-      <c r="F312" t="s">
-        <v>606</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12889,10 +12871,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>606</v>
+      </c>
+      <c r="F313" t="s">
         <v>607</v>
-      </c>
-      <c r="F313" t="s">
-        <v>608</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12918,10 +12900,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>608</v>
+      </c>
+      <c r="F314" t="s">
         <v>609</v>
-      </c>
-      <c r="F314" t="s">
-        <v>610</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12947,10 +12929,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>610</v>
+      </c>
+      <c r="F315" t="s">
         <v>611</v>
-      </c>
-      <c r="F315" t="s">
-        <v>612</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12976,10 +12958,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>612</v>
+      </c>
+      <c r="F316" t="s">
         <v>613</v>
-      </c>
-      <c r="F316" t="s">
-        <v>614</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13005,10 +12987,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>614</v>
+      </c>
+      <c r="F317" t="s">
         <v>615</v>
-      </c>
-      <c r="F317" t="s">
-        <v>616</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -13034,10 +13016,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>616</v>
+      </c>
+      <c r="F318" t="s">
         <v>617</v>
-      </c>
-      <c r="F318" t="s">
-        <v>618</v>
       </c>
       <c r="G318" t="n">
         <v>3</v>
@@ -13063,10 +13045,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>618</v>
+      </c>
+      <c r="F319" t="s">
         <v>619</v>
-      </c>
-      <c r="F319" t="s">
-        <v>620</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13092,10 +13074,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>620</v>
+      </c>
+      <c r="F320" t="s">
         <v>621</v>
-      </c>
-      <c r="F320" t="s">
-        <v>622</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13121,10 +13103,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>622</v>
+      </c>
+      <c r="F321" t="s">
         <v>623</v>
-      </c>
-      <c r="F321" t="s">
-        <v>624</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13150,10 +13132,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>624</v>
+      </c>
+      <c r="F322" t="s">
         <v>625</v>
-      </c>
-      <c r="F322" t="s">
-        <v>626</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13179,10 +13161,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>626</v>
+      </c>
+      <c r="F323" t="s">
         <v>627</v>
-      </c>
-      <c r="F323" t="s">
-        <v>628</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13208,10 +13190,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>628</v>
+      </c>
+      <c r="F324" t="s">
         <v>629</v>
-      </c>
-      <c r="F324" t="s">
-        <v>630</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13237,10 +13219,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>630</v>
+      </c>
+      <c r="F325" t="s">
         <v>631</v>
-      </c>
-      <c r="F325" t="s">
-        <v>632</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -13266,10 +13248,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>632</v>
+      </c>
+      <c r="F326" t="s">
         <v>633</v>
-      </c>
-      <c r="F326" t="s">
-        <v>634</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13295,10 +13277,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>634</v>
+      </c>
+      <c r="F327" t="s">
         <v>635</v>
-      </c>
-      <c r="F327" t="s">
-        <v>636</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -13324,10 +13306,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>636</v>
+      </c>
+      <c r="F328" t="s">
         <v>637</v>
-      </c>
-      <c r="F328" t="s">
-        <v>638</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13353,10 +13335,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>638</v>
+      </c>
+      <c r="F329" t="s">
         <v>639</v>
-      </c>
-      <c r="F329" t="s">
-        <v>640</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13382,10 +13364,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>640</v>
+      </c>
+      <c r="F330" t="s">
         <v>641</v>
-      </c>
-      <c r="F330" t="s">
-        <v>642</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13411,10 +13393,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>642</v>
+      </c>
+      <c r="F331" t="s">
         <v>643</v>
-      </c>
-      <c r="F331" t="s">
-        <v>644</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13440,10 +13422,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>644</v>
+      </c>
+      <c r="F332" t="s">
         <v>645</v>
-      </c>
-      <c r="F332" t="s">
-        <v>646</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13469,10 +13451,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>646</v>
+      </c>
+      <c r="F333" t="s">
         <v>647</v>
-      </c>
-      <c r="F333" t="s">
-        <v>648</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13498,10 +13480,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>648</v>
+      </c>
+      <c r="F334" t="s">
         <v>649</v>
-      </c>
-      <c r="F334" t="s">
-        <v>650</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13527,10 +13509,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>650</v>
+      </c>
+      <c r="F335" t="s">
         <v>651</v>
-      </c>
-      <c r="F335" t="s">
-        <v>652</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13556,10 +13538,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>652</v>
+      </c>
+      <c r="F336" t="s">
         <v>653</v>
-      </c>
-      <c r="F336" t="s">
-        <v>654</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13585,10 +13567,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>654</v>
+      </c>
+      <c r="F337" t="s">
         <v>655</v>
-      </c>
-      <c r="F337" t="s">
-        <v>656</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13614,10 +13596,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>656</v>
+      </c>
+      <c r="F338" t="s">
         <v>657</v>
-      </c>
-      <c r="F338" t="s">
-        <v>658</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13643,10 +13625,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>658</v>
+      </c>
+      <c r="F339" t="s">
         <v>659</v>
-      </c>
-      <c r="F339" t="s">
-        <v>660</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13672,10 +13654,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>660</v>
+      </c>
+      <c r="F340" t="s">
         <v>661</v>
-      </c>
-      <c r="F340" t="s">
-        <v>662</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13701,10 +13683,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>662</v>
+      </c>
+      <c r="F341" t="s">
         <v>663</v>
-      </c>
-      <c r="F341" t="s">
-        <v>664</v>
       </c>
       <c r="G341" t="n">
         <v>3</v>
@@ -13730,10 +13712,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>664</v>
+      </c>
+      <c r="F342" t="s">
         <v>665</v>
-      </c>
-      <c r="F342" t="s">
-        <v>666</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13759,10 +13741,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>666</v>
+      </c>
+      <c r="F343" t="s">
         <v>667</v>
-      </c>
-      <c r="F343" t="s">
-        <v>668</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13788,10 +13770,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>668</v>
+      </c>
+      <c r="F344" t="s">
         <v>669</v>
-      </c>
-      <c r="F344" t="s">
-        <v>670</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13817,10 +13799,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>670</v>
+      </c>
+      <c r="F345" t="s">
         <v>671</v>
-      </c>
-      <c r="F345" t="s">
-        <v>672</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13846,10 +13828,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>672</v>
+      </c>
+      <c r="F346" t="s">
         <v>673</v>
-      </c>
-      <c r="F346" t="s">
-        <v>674</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13875,10 +13857,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>674</v>
+      </c>
+      <c r="F347" t="s">
         <v>675</v>
-      </c>
-      <c r="F347" t="s">
-        <v>676</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13904,10 +13886,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>676</v>
+      </c>
+      <c r="F348" t="s">
         <v>677</v>
-      </c>
-      <c r="F348" t="s">
-        <v>678</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13933,10 +13915,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>678</v>
+      </c>
+      <c r="F349" t="s">
         <v>679</v>
-      </c>
-      <c r="F349" t="s">
-        <v>680</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13962,10 +13944,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>680</v>
+      </c>
+      <c r="F350" t="s">
         <v>681</v>
-      </c>
-      <c r="F350" t="s">
-        <v>682</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13991,10 +13973,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>682</v>
+      </c>
+      <c r="F351" t="s">
         <v>683</v>
-      </c>
-      <c r="F351" t="s">
-        <v>684</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14020,10 +14002,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>684</v>
+      </c>
+      <c r="F352" t="s">
         <v>685</v>
-      </c>
-      <c r="F352" t="s">
-        <v>686</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14049,10 +14031,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>686</v>
+      </c>
+      <c r="F353" t="s">
         <v>687</v>
-      </c>
-      <c r="F353" t="s">
-        <v>688</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14078,10 +14060,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>688</v>
+      </c>
+      <c r="F354" t="s">
         <v>689</v>
-      </c>
-      <c r="F354" t="s">
-        <v>690</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14107,10 +14089,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>690</v>
+      </c>
+      <c r="F355" t="s">
         <v>691</v>
-      </c>
-      <c r="F355" t="s">
-        <v>692</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -14136,10 +14118,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>692</v>
+      </c>
+      <c r="F356" t="s">
         <v>693</v>
-      </c>
-      <c r="F356" t="s">
-        <v>694</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14165,10 +14147,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>694</v>
+      </c>
+      <c r="F357" t="s">
         <v>695</v>
-      </c>
-      <c r="F357" t="s">
-        <v>696</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14194,10 +14176,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>696</v>
+      </c>
+      <c r="F358" t="s">
         <v>697</v>
-      </c>
-      <c r="F358" t="s">
-        <v>698</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14223,10 +14205,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>698</v>
+      </c>
+      <c r="F359" t="s">
         <v>699</v>
-      </c>
-      <c r="F359" t="s">
-        <v>700</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14252,10 +14234,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>700</v>
+      </c>
+      <c r="F360" t="s">
         <v>701</v>
-      </c>
-      <c r="F360" t="s">
-        <v>702</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14281,10 +14263,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>702</v>
+      </c>
+      <c r="F361" t="s">
         <v>703</v>
-      </c>
-      <c r="F361" t="s">
-        <v>704</v>
       </c>
       <c r="G361" t="n">
         <v>5</v>
@@ -14310,10 +14292,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>704</v>
+      </c>
+      <c r="F362" t="s">
         <v>705</v>
-      </c>
-      <c r="F362" t="s">
-        <v>706</v>
       </c>
       <c r="G362" t="n">
         <v>3</v>
@@ -14339,10 +14321,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>706</v>
+      </c>
+      <c r="F363" t="s">
         <v>707</v>
-      </c>
-      <c r="F363" t="s">
-        <v>708</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14368,10 +14350,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>708</v>
+      </c>
+      <c r="F364" t="s">
         <v>709</v>
-      </c>
-      <c r="F364" t="s">
-        <v>710</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14397,10 +14379,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>710</v>
+      </c>
+      <c r="F365" t="s">
         <v>711</v>
-      </c>
-      <c r="F365" t="s">
-        <v>712</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
@@ -14426,10 +14408,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>712</v>
+      </c>
+      <c r="F366" t="s">
         <v>713</v>
-      </c>
-      <c r="F366" t="s">
-        <v>714</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14455,10 +14437,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>714</v>
+      </c>
+      <c r="F367" t="s">
         <v>715</v>
-      </c>
-      <c r="F367" t="s">
-        <v>716</v>
       </c>
       <c r="G367" t="n">
         <v>6</v>
@@ -14484,10 +14466,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>716</v>
+      </c>
+      <c r="F368" t="s">
         <v>717</v>
-      </c>
-      <c r="F368" t="s">
-        <v>718</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14513,10 +14495,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>718</v>
+      </c>
+      <c r="F369" t="s">
         <v>719</v>
-      </c>
-      <c r="F369" t="s">
-        <v>720</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14542,10 +14524,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>720</v>
+      </c>
+      <c r="F370" t="s">
         <v>721</v>
-      </c>
-      <c r="F370" t="s">
-        <v>722</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14571,10 +14553,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>722</v>
+      </c>
+      <c r="F371" t="s">
         <v>723</v>
-      </c>
-      <c r="F371" t="s">
-        <v>724</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14600,10 +14582,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>724</v>
+      </c>
+      <c r="F372" t="s">
         <v>725</v>
-      </c>
-      <c r="F372" t="s">
-        <v>726</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14629,10 +14611,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>726</v>
+      </c>
+      <c r="F373" t="s">
         <v>727</v>
-      </c>
-      <c r="F373" t="s">
-        <v>728</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14658,10 +14640,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>728</v>
+      </c>
+      <c r="F374" t="s">
         <v>729</v>
-      </c>
-      <c r="F374" t="s">
-        <v>730</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14687,10 +14669,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>730</v>
+      </c>
+      <c r="F375" t="s">
         <v>731</v>
-      </c>
-      <c r="F375" t="s">
-        <v>732</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14716,10 +14698,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>732</v>
+      </c>
+      <c r="F376" t="s">
         <v>733</v>
-      </c>
-      <c r="F376" t="s">
-        <v>734</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14745,10 +14727,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>734</v>
+      </c>
+      <c r="F377" t="s">
         <v>735</v>
-      </c>
-      <c r="F377" t="s">
-        <v>736</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14774,10 +14756,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>736</v>
+      </c>
+      <c r="F378" t="s">
         <v>737</v>
-      </c>
-      <c r="F378" t="s">
-        <v>738</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14803,10 +14785,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>738</v>
+      </c>
+      <c r="F379" t="s">
         <v>739</v>
-      </c>
-      <c r="F379" t="s">
-        <v>740</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14832,10 +14814,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>740</v>
+      </c>
+      <c r="F380" t="s">
         <v>741</v>
-      </c>
-      <c r="F380" t="s">
-        <v>742</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14861,10 +14843,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>742</v>
+      </c>
+      <c r="F381" t="s">
         <v>743</v>
-      </c>
-      <c r="F381" t="s">
-        <v>744</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14890,10 +14872,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>744</v>
+      </c>
+      <c r="F382" t="s">
         <v>745</v>
-      </c>
-      <c r="F382" t="s">
-        <v>746</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14919,10 +14901,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>746</v>
+      </c>
+      <c r="F383" t="s">
         <v>747</v>
-      </c>
-      <c r="F383" t="s">
-        <v>748</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -14948,10 +14930,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>748</v>
+      </c>
+      <c r="F384" t="s">
         <v>749</v>
-      </c>
-      <c r="F384" t="s">
-        <v>750</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14977,10 +14959,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>750</v>
+      </c>
+      <c r="F385" t="s">
         <v>751</v>
-      </c>
-      <c r="F385" t="s">
-        <v>752</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15006,10 +14988,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>665</v>
       </c>
       <c r="G386" t="n">
         <v>6</v>
@@ -15035,10 +15017,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15064,10 +15046,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G388" t="n">
         <v>4</v>
@@ -15093,10 +15075,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15122,10 +15104,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15151,10 +15133,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15180,10 +15162,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15209,10 +15191,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15238,10 +15220,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F394" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15267,10 +15249,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F395" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15296,10 +15278,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F396" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15325,10 +15307,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F397" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15354,10 +15336,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F398" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15383,10 +15365,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F399" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15412,10 +15394,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F400" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -15441,10 +15423,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F401" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15470,10 +15452,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F402" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15499,10 +15481,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F403" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15528,10 +15510,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F404" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15557,10 +15539,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F405" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G405" t="n">
         <v>6</v>
@@ -15586,10 +15568,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F406" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15615,10 +15597,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F407" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -15644,10 +15626,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F408" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15673,10 +15655,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F409" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15702,10 +15684,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F410" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15731,10 +15713,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F411" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15760,10 +15742,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F412" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15789,10 +15771,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F413" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15818,10 +15800,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F414" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15847,10 +15829,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F415" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15876,10 +15858,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F416" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15905,10 +15887,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F417" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15934,10 +15916,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F418" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15963,10 +15945,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F419" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15992,10 +15974,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F420" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16021,10 +16003,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F421" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16050,10 +16032,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F422" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -16079,10 +16061,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F423" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16108,10 +16090,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>186</v>
+      </c>
+      <c r="F424" t="s">
         <v>187</v>
-      </c>
-      <c r="F424" t="s">
-        <v>188</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16137,10 +16119,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F425" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16166,10 +16148,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F426" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16195,10 +16177,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F427" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -16224,10 +16206,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F428" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16253,10 +16235,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F429" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16282,10 +16264,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F430" t="s">
-        <v>838</v>
+        <v>711</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -16311,10 +16293,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F431" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16340,10 +16322,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F432" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16369,10 +16351,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F433" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16398,10 +16380,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F434" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16427,10 +16409,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F435" t="s">
-        <v>848</v>
+        <v>667</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16456,10 +16438,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F436" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16485,10 +16467,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F437" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16514,10 +16496,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F438" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16543,10 +16525,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F439" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16572,10 +16554,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F440" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16601,10 +16583,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F441" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16630,10 +16612,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F442" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16659,10 +16641,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F443" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16688,10 +16670,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F444" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16717,10 +16699,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F445" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16746,10 +16728,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F446" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16775,10 +16757,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F447" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16804,10 +16786,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F448" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16833,10 +16815,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F449" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16862,10 +16844,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F450" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16891,10 +16873,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F451" t="s">
-        <v>848</v>
+        <v>667</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16920,10 +16902,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F452" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16949,10 +16931,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F453" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16978,10 +16960,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F454" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17007,10 +16989,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F455" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -17036,10 +17018,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F456" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17065,10 +17047,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F457" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17094,10 +17076,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F458" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17123,10 +17105,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F459" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17152,10 +17134,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F460" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17181,10 +17163,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F461" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -17210,10 +17192,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F462" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17239,10 +17221,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F463" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17268,10 +17250,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F464" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17297,10 +17279,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F465" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17326,10 +17308,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F466" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17355,10 +17337,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F467" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17384,10 +17366,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F468" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17413,10 +17395,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F469" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17442,10 +17424,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F470" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17471,10 +17453,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F471" t="s">
-        <v>918</v>
+        <v>375</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -17500,10 +17482,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F472" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17529,10 +17511,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F473" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17558,10 +17540,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F474" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17587,10 +17569,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F475" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17616,10 +17598,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F476" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17645,10 +17627,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F477" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17674,10 +17656,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F478" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17703,10 +17685,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F479" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17732,10 +17714,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F480" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17761,10 +17743,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="F481" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17790,10 +17772,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="F482" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17819,10 +17801,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F483" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17848,10 +17830,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F484" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17877,10 +17859,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="F485" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17906,10 +17888,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F486" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -17935,10 +17917,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F487" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17964,10 +17946,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F488" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17993,10 +17975,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F489" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18022,10 +18004,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F490" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18051,10 +18033,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F491" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18080,10 +18062,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F492" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18109,10 +18091,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F493" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18138,10 +18120,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F494" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18167,10 +18149,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F495" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18196,10 +18178,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F496" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18225,10 +18207,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F497" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18254,10 +18236,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F498" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18283,10 +18265,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F499" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18312,10 +18294,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F500" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18341,10 +18323,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F501" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18370,10 +18352,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="F502" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18399,10 +18381,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F503" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18428,10 +18410,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F504" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18457,10 +18439,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F505" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G505" t="n">
         <v>3</v>
@@ -18486,10 +18468,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F506" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18515,10 +18497,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F507" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18544,10 +18526,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F508" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18573,10 +18555,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F509" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18602,10 +18584,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F510" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18631,10 +18613,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F511" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18660,10 +18642,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F512" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18689,10 +18671,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F513" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18718,10 +18700,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F514" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18747,10 +18729,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F515" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18776,10 +18758,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F516" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G516" t="n">
         <v>4</v>
@@ -18805,10 +18787,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F517" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18834,10 +18816,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F518" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18863,10 +18845,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F519" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18892,10 +18874,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F520" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18921,10 +18903,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F521" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18950,10 +18932,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F522" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18979,10 +18961,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F523" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19008,10 +18990,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F524" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19037,10 +19019,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F525" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19066,10 +19048,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F526" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19095,10 +19077,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F527" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19124,10 +19106,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F528" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -19153,10 +19135,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="F529" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19182,10 +19164,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="F530" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19211,10 +19193,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F531" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19240,10 +19222,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="F532" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19269,10 +19251,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="F533" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19298,10 +19280,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F534" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19327,10 +19309,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="F535" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19356,10 +19338,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F536" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19385,10 +19367,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F537" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19414,10 +19396,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F538" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19443,10 +19425,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="F539" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19472,10 +19454,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F540" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19501,10 +19483,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F541" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19530,10 +19512,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="F542" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19559,10 +19541,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F543" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19588,10 +19570,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="F544" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19617,10 +19599,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="F545" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="G545" t="n">
         <v>2</v>
@@ -19646,10 +19628,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F546" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19675,10 +19657,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F547" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19704,10 +19686,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="F548" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19733,10 +19715,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F549" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19762,10 +19744,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F550" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19791,10 +19773,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="F551" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19820,10 +19802,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="F552" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19849,10 +19831,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="F553" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19878,10 +19860,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F554" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19907,10 +19889,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="F555" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19936,10 +19918,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F556" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19965,10 +19947,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="F557" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19994,10 +19976,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="F558" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20023,10 +20005,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="F559" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20052,10 +20034,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F560" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20081,10 +20063,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F561" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20110,10 +20092,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="F562" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20139,10 +20121,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="F563" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20168,10 +20150,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F564" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20197,10 +20179,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="F565" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20226,10 +20208,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="F566" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20255,10 +20237,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="F567" t="s">
-        <v>1108</v>
+        <v>959</v>
       </c>
       <c r="G567" t="n">
         <v>2</v>
@@ -20284,10 +20266,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F568" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20313,10 +20295,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F569" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20342,10 +20324,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F570" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="G570" t="n">
         <v>7</v>
@@ -20371,10 +20353,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F571" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20400,10 +20382,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F572" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20429,10 +20411,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F573" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="G573" t="n">
         <v>3</v>
@@ -20458,10 +20440,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F574" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20487,10 +20469,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="F575" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20516,10 +20498,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="F576" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20545,10 +20527,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="F577" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20574,10 +20556,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="F578" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20603,10 +20585,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F579" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20632,10 +20614,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F580" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20661,10 +20643,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F581" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20690,10 +20672,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F582" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20719,10 +20701,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F583" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20748,10 +20730,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F584" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="G584" t="n">
         <v>3</v>
@@ -20777,10 +20759,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F585" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20806,10 +20788,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F586" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20835,10 +20817,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F587" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20864,10 +20846,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F588" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20893,10 +20875,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="F589" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>

--- a/xlsx/互联网_intext.xlsx
+++ b/xlsx/互联网_intext.xlsx
@@ -29,7 +29,7 @@
     <t>电脑网络</t>
   </si>
   <si>
-    <t>政策_政策_美國_互联网</t>
+    <t>体育运动_体育运动_大众媒体_互联网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nanonetwork</t>
